--- a/lab2/л2.xlsx
+++ b/lab2/л2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3 семестр\labs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D69D28-137D-4577-BB59-B53DA0D90ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44826A5-FAB4-4B49-A4F6-832FC193BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{325C8A97-2D28-4A03-9882-61997CA25D55}"/>
+    <workbookView xWindow="945" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{325C8A97-2D28-4A03-9882-61997CA25D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Размер</t>
   </si>
@@ -54,7 +54,22 @@
     <t>Домиком</t>
   </si>
   <si>
-    <t>0,01(4к)</t>
+    <t>теоритическая</t>
+  </si>
+  <si>
+    <t>n^3</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>25к элем</t>
+  </si>
+  <si>
+    <t>40к элем</t>
+  </si>
+  <si>
+    <t>15к элем</t>
   </si>
 </sst>
 </file>
@@ -71,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -212,6 +234,55 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-63CB-4958-8C9E-70E3AFF58FB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>vbjfghjc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3333333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1F53-4C24-B911-AE2BEDCD578D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1280,13 +1351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D16AF6-D7FD-4440-820D-931678C0806F}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1334,19 +1408,144 @@
         <v>54.537999999999997</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>B1^3</f>
+        <v>1000000</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C1^3</f>
+        <v>8000000</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="C3:F3" si="0">D1^3</f>
+        <v>64000000</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000000</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>B3/$B$5</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:F4" si="1">C3/$B$5</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.02</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2E-3</v>
+      </c>
+      <c r="C13">
+        <v>2E-3</v>
+      </c>
+      <c r="D13">
+        <v>2E-3</v>
+      </c>
+      <c r="E13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1565,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1379,11 +1578,14 @@
       <c r="D17" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
+      <c r="E17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1398,6 +1600,62 @@
       </c>
       <c r="E18" s="2">
         <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>10.609</v>
+      </c>
+      <c r="C21">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="D21">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="E21">
+        <v>7.9909999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C22">
+        <v>2E-3</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
